--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-03_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-03_beg.xlsx
@@ -516,7 +516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]   There's an old saying in Kazimierz: "Death catches up to you when you stop to take a break."
+    <t xml:space="preserve">[name="Nearl"]   There's an old saying in Kazimierz: 'Death catches up to you when you stop to take a break.'
 </t>
   </si>
   <si>
